--- a/scrape_test.xlsx
+++ b/scrape_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="97">
   <si>
     <t>ASK</t>
   </si>
@@ -300,12 +300,40 @@
   </si>
   <si>
     <t>Sec Red NCD 10.61%Sr.VIII</t>
+  </si>
+  <si>
+    <t>1,019.50</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>INE342T07445</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 11.19% Sr.V</t>
+  </si>
+  <si>
+    <t>11.2 %</t>
+  </si>
+  <si>
+    <t>10.66</t>
+  </si>
+  <si>
+    <t>INE614X07365</t>
+  </si>
+  <si>
+    <t>INE342T07395</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 10.75% Sr.III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F41F21-BEF6-4325-8408-EAC3D486012A}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
@@ -679,16 +707,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.44140625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.21875"/>
+    <col min="9" max="9" customWidth="true" width="14.21875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.44140625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.77734375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.109375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -732,7 +760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -743,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -758,22 +786,22 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -814,7 +842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -855,7 +883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -866,10 +894,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -881,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -937,7 +965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -978,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1019,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1030,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
@@ -1045,22 +1073,22 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1098,170 +1126,6 @@
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" t="s">
         <v>13</v>
       </c>
     </row>

--- a/scrape_test.xlsx
+++ b/scrape_test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="97">
   <si>
     <t>ASK</t>
   </si>
@@ -699,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F41F21-BEF6-4325-8408-EAC3D486012A}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
@@ -771,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -786,19 +786,19 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -894,10 +894,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -909,19 +909,19 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -962,170 +962,6 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" t="s">
         <v>13</v>
       </c>
     </row>

--- a/scrape_test.xlsx
+++ b/scrape_test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9537" uniqueCount="940">
   <si>
     <t>ASK</t>
   </si>
@@ -1548,6 +1548,1314 @@
   </si>
   <si>
     <t>INE148I07QI8</t>
+  </si>
+  <si>
+    <t>1,008.00</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201600.00</t>
+  </si>
+  <si>
+    <t>1,015.00</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1015.00</t>
+  </si>
+  <si>
+    <t>14.69</t>
+  </si>
+  <si>
+    <t>1,018.00</t>
+  </si>
+  <si>
+    <t>10180.00</t>
+  </si>
+  <si>
+    <t>975.00</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>55575.00</t>
+  </si>
+  <si>
+    <t>12.04</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>1,035.00</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>15525.00</t>
+  </si>
+  <si>
+    <t>11.76</t>
+  </si>
+  <si>
+    <t>997.00</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>64805.00</t>
+  </si>
+  <si>
+    <t>19.72</t>
+  </si>
+  <si>
+    <t>49500.00</t>
+  </si>
+  <si>
+    <t>77616.00</t>
+  </si>
+  <si>
+    <t>11.46</t>
+  </si>
+  <si>
+    <t>15.39</t>
+  </si>
+  <si>
+    <t>12.59</t>
+  </si>
+  <si>
+    <t>99600.00</t>
+  </si>
+  <si>
+    <t>19.84</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>49245.00</t>
+  </si>
+  <si>
+    <t>13.21</t>
+  </si>
+  <si>
+    <t>1,029.00</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>6174.00</t>
+  </si>
+  <si>
+    <t>10.34</t>
+  </si>
+  <si>
+    <t>995.00</t>
+  </si>
+  <si>
+    <t>9950.00</t>
+  </si>
+  <si>
+    <t>10.91</t>
+  </si>
+  <si>
+    <t>14976.00</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>174240.00</t>
+  </si>
+  <si>
+    <t>1,004.00</t>
+  </si>
+  <si>
+    <t>100400.00</t>
+  </si>
+  <si>
+    <t>12.30</t>
+  </si>
+  <si>
+    <t>988.99</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>39559.60</t>
+  </si>
+  <si>
+    <t>943.99</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10383.89</t>
+  </si>
+  <si>
+    <t>14.05</t>
+  </si>
+  <si>
+    <t>12.64</t>
+  </si>
+  <si>
+    <t>996.20</t>
+  </si>
+  <si>
+    <t>14943.00</t>
+  </si>
+  <si>
+    <t>1,029.99</t>
+  </si>
+  <si>
+    <t>15449.85</t>
+  </si>
+  <si>
+    <t>9.77</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>30600.00</t>
+  </si>
+  <si>
+    <t>1,028.00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2056.00</t>
+  </si>
+  <si>
+    <t>15.35</t>
+  </si>
+  <si>
+    <t>INE148I07QE7</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.02% Sr V</t>
+  </si>
+  <si>
+    <t>1,199.00</t>
+  </si>
+  <si>
+    <t>5995.00</t>
+  </si>
+  <si>
+    <t>INE148I07PZ4</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.48% Sr V</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>1,008.95</t>
+  </si>
+  <si>
+    <t>10089.50</t>
+  </si>
+  <si>
+    <t>IBULHSGFIN</t>
+  </si>
+  <si>
+    <t>INE148I07QS7</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.25% Sr VIII</t>
+  </si>
+  <si>
+    <t>INE148I07QO6</t>
+  </si>
+  <si>
+    <t>Sec Re NCD Sr VI</t>
+  </si>
+  <si>
+    <t>1,003.65</t>
+  </si>
+  <si>
+    <t>1003650.00</t>
+  </si>
+  <si>
+    <t>INE741K07520</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.10% Sr I</t>
+  </si>
+  <si>
+    <t>13.76</t>
+  </si>
+  <si>
+    <t>999.97</t>
+  </si>
+  <si>
+    <t>19999.40</t>
+  </si>
+  <si>
+    <t>INE148I07PA7</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.25% Sr II</t>
+  </si>
+  <si>
+    <t>11.21</t>
+  </si>
+  <si>
+    <t>INE148I07QB3</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151200.00</t>
+  </si>
+  <si>
+    <t>1,040.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61140.00</t>
+  </si>
+  <si>
+    <t>10.62</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>974.99</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>44849.54</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>398000.00</t>
+  </si>
+  <si>
+    <t>20.35</t>
+  </si>
+  <si>
+    <t>999.99</t>
+  </si>
+  <si>
+    <t>12999.87</t>
+  </si>
+  <si>
+    <t>10.74</t>
+  </si>
+  <si>
+    <t>965.00</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16405.00</t>
+  </si>
+  <si>
+    <t>11.51</t>
+  </si>
+  <si>
+    <t>1,014.00</t>
+  </si>
+  <si>
+    <t>2028.00</t>
+  </si>
+  <si>
+    <t>1,002.10</t>
+  </si>
+  <si>
+    <t>1002.10</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>26-Sep-2026</t>
+  </si>
+  <si>
+    <t>INE148I07PY7</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.90% Sr IV</t>
+  </si>
+  <si>
+    <t>12.03</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15984.00</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>26-Mar-2027</t>
+  </si>
+  <si>
+    <t>INE148I07SG8</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>06-Aug-2028</t>
+  </si>
+  <si>
+    <t>INE804I079Y6</t>
+  </si>
+  <si>
+    <t>Sec Red NCD 9.85% Sr. VII</t>
+  </si>
+  <si>
+    <t>INE244L07416</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.85% Sr.VIII</t>
+  </si>
+  <si>
+    <t>9.80</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>25-Apr-2026</t>
+  </si>
+  <si>
+    <t>INE244L07499</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.80% Sr.V</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>02-May-2025</t>
+  </si>
+  <si>
+    <t>INE321N07285</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.80% Sr.II</t>
+  </si>
+  <si>
+    <t>INE244L07317</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.80% Sr.VII</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>INE148I07RA3</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.8% Sr XII</t>
+  </si>
+  <si>
+    <t>9.75</t>
+  </si>
+  <si>
+    <t>4.69</t>
+  </si>
+  <si>
+    <t>22-Dec-2028</t>
+  </si>
+  <si>
+    <t>INE148I08322</t>
+  </si>
+  <si>
+    <t>UnSe Re NCD 9.75% Sr.IX</t>
+  </si>
+  <si>
+    <t>1,105.45</t>
+  </si>
+  <si>
+    <t>4421.80</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>08-Sep-2024</t>
+  </si>
+  <si>
+    <t>INE342T07213</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.75% Sr. IV</t>
+  </si>
+  <si>
+    <t>-1.81</t>
+  </si>
+  <si>
+    <t>N0</t>
+  </si>
+  <si>
+    <t>49900.00</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>18-Jan-2025</t>
+  </si>
+  <si>
+    <t>INE342T07411</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.75% Sr. I</t>
+  </si>
+  <si>
+    <t>13.14</t>
+  </si>
+  <si>
+    <t>YG</t>
+  </si>
+  <si>
+    <t>9.71</t>
+  </si>
+  <si>
+    <t>INE148I07RP1</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.71% Sr VIII</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>INE148I07QT5</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>07-Sep-2028</t>
+  </si>
+  <si>
+    <t>INE741K07579</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.70% Sr VII</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8955.00</t>
+  </si>
+  <si>
+    <t>9.65</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>27-Dec-2025</t>
+  </si>
+  <si>
+    <t>INE148I07RD7</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.65% Sr I</t>
+  </si>
+  <si>
+    <t>11.72</t>
+  </si>
+  <si>
+    <t>YO</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>9700.00</t>
+  </si>
+  <si>
+    <t>1.94</t>
+  </si>
+  <si>
+    <t>26-Mar-2026</t>
+  </si>
+  <si>
+    <t>INE148I07SD5</t>
+  </si>
+  <si>
+    <t>11.84</t>
+  </si>
+  <si>
+    <t>150000.00</t>
+  </si>
+  <si>
+    <t>INE321N07277</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.65% Sr.III</t>
+  </si>
+  <si>
+    <t>14.16</t>
+  </si>
+  <si>
+    <t>YB</t>
+  </si>
+  <si>
+    <t>INE148I07RM8</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.65% Sr VII</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>09-Nov-2025</t>
+  </si>
+  <si>
+    <t>INE148I07QN8</t>
+  </si>
+  <si>
+    <t>YX</t>
+  </si>
+  <si>
+    <t>INE148I07SP9</t>
+  </si>
+  <si>
+    <t>INE148I07QQ1</t>
+  </si>
+  <si>
+    <t>9.61</t>
+  </si>
+  <si>
+    <t>INE244L07390</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.61% Sr.VI</t>
+  </si>
+  <si>
+    <t>944.99</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>90719.04</t>
+  </si>
+  <si>
+    <t>9.60</t>
+  </si>
+  <si>
+    <t>INE477L08154</t>
+  </si>
+  <si>
+    <t>Unsec Re NCD 9.60% Sr.II</t>
+  </si>
+  <si>
+    <t>12.43</t>
+  </si>
+  <si>
+    <t>INE530B08102</t>
+  </si>
+  <si>
+    <t>UnSe Re NCD 9.6% Sr.II</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>23-Nov-2025</t>
+  </si>
+  <si>
+    <t>INE741K07470</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.60% Sr. III</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>21-Dec-2025</t>
+  </si>
+  <si>
+    <t>INE413U07228</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.60% Sr 2</t>
+  </si>
+  <si>
+    <t>INE244L07424</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.60% Sr.I</t>
+  </si>
+  <si>
+    <t>987.00</t>
+  </si>
+  <si>
+    <t>98700.00</t>
+  </si>
+  <si>
+    <t>INE413U07236</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.57% Sr 3</t>
+  </si>
+  <si>
+    <t>11.34</t>
+  </si>
+  <si>
+    <t>INE244L07432</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.57% Sr.II</t>
+  </si>
+  <si>
+    <t>Y8</t>
+  </si>
+  <si>
+    <t>9.48</t>
+  </si>
+  <si>
+    <t>INE148I07RJ4</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>INE148I07QK4</t>
+  </si>
+  <si>
+    <t>YV</t>
+  </si>
+  <si>
+    <t>INE148I07SI4</t>
+  </si>
+  <si>
+    <t>INE321N07301</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.45% Sr.I</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>23-Nov-2024</t>
+  </si>
+  <si>
+    <t>INE741K07462</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.45% Sr. I</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>9.43</t>
+  </si>
+  <si>
+    <t>INE804I078Y8</t>
+  </si>
+  <si>
+    <t>Sec Red NCD 9.43% Sr. VI</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>02-Feb-2025</t>
+  </si>
+  <si>
+    <t>INE244L07366</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.40% Sr.III</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>13-Feb-2025</t>
+  </si>
+  <si>
+    <t>INE039A07843</t>
+  </si>
+  <si>
+    <t>9.40 % SRNCD Tr II Sr III</t>
+  </si>
+  <si>
+    <t>INE148I07QH0</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.4% Sr IV</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>07-Nov-2027</t>
+  </si>
+  <si>
+    <t>INE741K07587</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.40% Sr V</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>INE148I07RG0</t>
+  </si>
+  <si>
+    <t>INE342T07205</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.40% Sr. III</t>
+  </si>
+  <si>
+    <t>929.99</t>
+  </si>
+  <si>
+    <t>13949.85</t>
+  </si>
+  <si>
+    <t>9.39</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>28-Dec-2027</t>
+  </si>
+  <si>
+    <t>INE148I07ND6</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.39% Sr.VIII</t>
+  </si>
+  <si>
+    <t>12.95</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>9.35</t>
+  </si>
+  <si>
+    <t>9.56</t>
+  </si>
+  <si>
+    <t>03-Nov-2033</t>
+  </si>
+  <si>
+    <t>INE140A07773</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.35%</t>
+  </si>
+  <si>
+    <t>INE148I08348</t>
+  </si>
+  <si>
+    <t>UnSe Re NCD 9.35% Sr.X</t>
+  </si>
+  <si>
+    <t>9.66</t>
+  </si>
+  <si>
+    <t>ERFLNCDI</t>
+  </si>
+  <si>
+    <t>9.25</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>22-Mar-2028</t>
+  </si>
+  <si>
+    <t>INE528S07128</t>
+  </si>
+  <si>
+    <t>Sec Red NCD 9.25% Sr. VI</t>
+  </si>
+  <si>
+    <t>12.79</t>
+  </si>
+  <si>
+    <t>5850.00</t>
+  </si>
+  <si>
+    <t>INE148I07RI6</t>
+  </si>
+  <si>
+    <t>12.68</t>
+  </si>
+  <si>
+    <t>YN</t>
+  </si>
+  <si>
+    <t>INE148I07SA1</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.25% Sr I</t>
+  </si>
+  <si>
+    <t>1010000.00</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>24-Sep-2026</t>
+  </si>
+  <si>
+    <t>INE148I07KN1</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.25% Sr.VII</t>
+  </si>
+  <si>
+    <t>10.85</t>
+  </si>
+  <si>
+    <t>YA</t>
+  </si>
+  <si>
+    <t>972.65</t>
+  </si>
+  <si>
+    <t>4863.25</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>06-Jan-2027</t>
+  </si>
+  <si>
+    <t>INE148I07LC2</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>Y0</t>
+  </si>
+  <si>
+    <t>INE148I07RC9</t>
+  </si>
+  <si>
+    <t>YD</t>
+  </si>
+  <si>
+    <t>INE148I07RO4</t>
+  </si>
+  <si>
+    <t>YR</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>28-Apr-2027</t>
+  </si>
+  <si>
+    <t>INE148I07LT6</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>07-Jun-2026</t>
+  </si>
+  <si>
+    <t>INE741K07595</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.25% Sr III</t>
+  </si>
+  <si>
+    <t>YQ</t>
+  </si>
+  <si>
+    <t>34920.00</t>
+  </si>
+  <si>
+    <t>INE148I07SC7</t>
+  </si>
+  <si>
+    <t>11.41</t>
+  </si>
+  <si>
+    <t>YZ</t>
+  </si>
+  <si>
+    <t>INE148I07SO2</t>
+  </si>
+  <si>
+    <t>1,003.00</t>
+  </si>
+  <si>
+    <t>10030.00</t>
+  </si>
+  <si>
+    <t>INE148I07QG2</t>
+  </si>
+  <si>
+    <t>11.58</t>
+  </si>
+  <si>
+    <t>INE148I07PW1</t>
+  </si>
+  <si>
+    <t>977.00</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>218848.00</t>
+  </si>
+  <si>
+    <t>9.21</t>
+  </si>
+  <si>
+    <t>INE413U07244</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.21% Sr 1</t>
+  </si>
+  <si>
+    <t>12.61</t>
+  </si>
+  <si>
+    <t>1,038.99</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>98704.05</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>INE140A07765</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.35% Sr IV</t>
+  </si>
+  <si>
+    <t>8.90</t>
+  </si>
+  <si>
+    <t>965.70</t>
+  </si>
+  <si>
+    <t>4828.50</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>25-Sep-2028</t>
+  </si>
+  <si>
+    <t>INE244L07184</t>
+  </si>
+  <si>
+    <t>SeReNCD9.20%SrVIICIII&amp;IV</t>
+  </si>
+  <si>
+    <t>4925.00</t>
+  </si>
+  <si>
+    <t>9.15</t>
+  </si>
+  <si>
+    <t>INE148I08256</t>
+  </si>
+  <si>
+    <t>Uns Red NCD 9.15% Sr.IX</t>
+  </si>
+  <si>
+    <t>12.01</t>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>07-Sep-2025</t>
+  </si>
+  <si>
+    <t>9.05</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>28-Sep-2024</t>
+  </si>
+  <si>
+    <t>INE148I07LW0</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.05% Sr.I</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>03-Nov-2026</t>
+  </si>
+  <si>
+    <t>INE140A07740</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.20% Sr III</t>
+  </si>
+  <si>
+    <t>15.15</t>
+  </si>
+  <si>
+    <t>10.83</t>
+  </si>
+  <si>
+    <t>9.02</t>
+  </si>
+  <si>
+    <t>INE148I07QM0</t>
+  </si>
+  <si>
+    <t>NHBTF2014</t>
+  </si>
+  <si>
+    <t>5,000.00</t>
+  </si>
+  <si>
+    <t>9.01</t>
+  </si>
+  <si>
+    <t>13-Jan-2034</t>
+  </si>
+  <si>
+    <t>INE557F07132</t>
+  </si>
+  <si>
+    <t>BOND 9.01%PA TF Tr-I S 3B</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>28-Jun-2028</t>
+  </si>
+  <si>
+    <t>INE530B07377</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9% Sr.VI</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>187150.00</t>
+  </si>
+  <si>
+    <t>INE148I07GL3</t>
+  </si>
+  <si>
+    <t>Sec Red NCD 9.0% Sr. VI</t>
+  </si>
+  <si>
+    <t>11.83</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>24-Jan-2028</t>
+  </si>
+  <si>
+    <t>INE530B07260</t>
+  </si>
+  <si>
+    <t>11.04</t>
+  </si>
+  <si>
+    <t>1,000.55</t>
+  </si>
+  <si>
+    <t>5002.75</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>28-Apr-2025</t>
+  </si>
+  <si>
+    <t>INE148I07LN9</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9% Sr.IV</t>
+  </si>
+  <si>
+    <t>17.36</t>
+  </si>
+  <si>
+    <t>1,039.00</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>519500.00</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>03-Nov-2025</t>
+  </si>
+  <si>
+    <t>INE140A07757</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 9.05% Sr II</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>1,035.85</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7250.95</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>24-Sep-2024</t>
+  </si>
+  <si>
+    <t>INE148I07KH3</t>
+  </si>
+  <si>
+    <t>11.85</t>
+  </si>
+  <si>
+    <t>8.11 %</t>
+  </si>
+  <si>
+    <t>22.20</t>
+  </si>
+  <si>
+    <t>10.63 %</t>
+  </si>
+  <si>
+    <t>7.41 %</t>
+  </si>
+  <si>
+    <t>11.42</t>
+  </si>
+  <si>
+    <t>11.73 %</t>
+  </si>
+  <si>
+    <t>9.79</t>
+  </si>
+  <si>
+    <t>11.67 %</t>
+  </si>
+  <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>9.94</t>
+  </si>
+  <si>
+    <t>12.44 %</t>
+  </si>
+  <si>
+    <t>11.16 %</t>
+  </si>
+  <si>
+    <t>9.38</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +3228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F41F21-BEF6-4325-8408-EAC3D486012A}">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
@@ -1999,13 +3307,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>504</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>594</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>595</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -2029,112 +3337,112 @@
         <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="O2" t="s">
-        <v>160</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>743</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>741</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>501</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>502</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>744</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>574</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>571</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>572</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>741</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>621</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>622</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>573</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>574</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>745</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2149,19 +3457,19 @@
         <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>741</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>629</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>630</v>
       </c>
       <c r="J5" t="s">
-        <v>154</v>
+        <v>746</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>574</v>
       </c>
       <c r="L5" t="s">
         <v>62</v>
@@ -2178,57 +3486,57 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>644</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>645</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>747</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>748</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>311</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2243,19 +3551,19 @@
         <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>749</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>750</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>751</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>752</v>
       </c>
       <c r="L7" t="s">
         <v>62</v>
@@ -2272,10 +3580,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>753</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2290,19 +3598,19 @@
         <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>754</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>633</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>634</v>
       </c>
       <c r="J8" t="s">
-        <v>155</v>
+        <v>755</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>756</v>
       </c>
       <c r="L8" t="s">
         <v>62</v>
@@ -2319,10 +3627,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>486</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2337,19 +3645,19 @@
         <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>757</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>758</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>759</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>760</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>761</v>
       </c>
       <c r="L9" t="s">
         <v>62</v>
@@ -2366,10 +3674,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>485</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>500</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2384,19 +3692,19 @@
         <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>757</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>762</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>763</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>764</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>765</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
@@ -2416,7 +3724,7 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>632</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -2431,19 +3739,19 @@
         <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>757</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>501</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>502</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>766</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>767</v>
       </c>
       <c r="L11" t="s">
         <v>62</v>
@@ -2460,104 +3768,104 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>757</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>768</v>
       </c>
       <c r="I12" t="s">
-        <v>91</v>
+        <v>769</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>770</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>771</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M12" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="O12" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>772</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>757</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>497</v>
       </c>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>773</v>
       </c>
       <c r="K13" t="s">
-        <v>172</v>
+        <v>767</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="M13" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>325</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2572,19 +3880,19 @@
         <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>757</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>660</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>661</v>
       </c>
       <c r="J14" t="s">
-        <v>176</v>
+        <v>774</v>
       </c>
       <c r="K14" t="s">
-        <v>177</v>
+        <v>775</v>
       </c>
       <c r="L14" t="s">
         <v>62</v>
@@ -2601,57 +3909,57 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>578</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>665</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>776</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>520</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>777</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>778</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>779</v>
       </c>
       <c r="I15" t="s">
-        <v>105</v>
+        <v>780</v>
       </c>
       <c r="J15" t="s">
-        <v>179</v>
+        <v>781</v>
       </c>
       <c r="K15" t="s">
-        <v>180</v>
+        <v>782</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="M15" t="s">
-        <v>181</v>
+        <v>937</v>
       </c>
       <c r="N15" t="s">
-        <v>182</v>
+        <v>783</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>935</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>784</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>325</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -2666,19 +3974,19 @@
         <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>785</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>786</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>787</v>
       </c>
       <c r="J16" t="s">
-        <v>183</v>
+        <v>788</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>789</v>
       </c>
       <c r="L16" t="s">
         <v>62</v>
@@ -2695,131 +4003,131 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>578</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>785</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>654</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>655</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>790</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
+        <v>791</v>
       </c>
       <c r="L17" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="M17" t="s">
-        <v>191</v>
+        <v>938</v>
       </c>
       <c r="N17" t="s">
-        <v>192</v>
+        <v>792</v>
       </c>
       <c r="O17" t="s">
-        <v>27</v>
+        <v>939</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>793</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>794</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>795</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>796</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>797</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>798</v>
       </c>
       <c r="L18" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="M18" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="N18" t="s">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="O18" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>588</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>589</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>794</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>590</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>591</v>
       </c>
       <c r="L19" t="s">
         <v>62</v>
@@ -2828,2219 +4136,10 @@
         <v>62</v>
       </c>
       <c r="N19" t="s">
-        <v>62</v>
+        <v>799</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I20" t="s">
-        <v>120</v>
-      </c>
-      <c r="J20" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" t="s">
-        <v>124</v>
-      </c>
-      <c r="N20" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" t="s">
-        <v>128</v>
-      </c>
-      <c r="J21" t="s">
-        <v>210</v>
-      </c>
-      <c r="K21" t="s">
-        <v>211</v>
-      </c>
-      <c r="L21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" t="s">
-        <v>212</v>
-      </c>
-      <c r="N21" t="s">
-        <v>213</v>
-      </c>
-      <c r="O21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" t="s">
-        <v>131</v>
-      </c>
-      <c r="J22" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" t="s">
-        <v>133</v>
-      </c>
-      <c r="L22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M22" t="s">
-        <v>62</v>
-      </c>
-      <c r="N22" t="s">
-        <v>62</v>
-      </c>
-      <c r="O22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" t="s">
-        <v>142</v>
-      </c>
-      <c r="N23" t="s">
-        <v>143</v>
-      </c>
-      <c r="O23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" t="s">
-        <v>153</v>
-      </c>
-      <c r="J24" t="s">
-        <v>216</v>
-      </c>
-      <c r="K24" t="s">
-        <v>217</v>
-      </c>
-      <c r="L24" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" t="s">
-        <v>219</v>
-      </c>
-      <c r="I25" t="s">
-        <v>220</v>
-      </c>
-      <c r="J25" t="s">
-        <v>221</v>
-      </c>
-      <c r="K25" t="s">
-        <v>217</v>
-      </c>
-      <c r="L25" t="s">
-        <v>62</v>
-      </c>
-      <c r="M25" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" t="s">
-        <v>224</v>
-      </c>
-      <c r="H26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" t="s">
-        <v>225</v>
-      </c>
-      <c r="K26" t="s">
-        <v>226</v>
-      </c>
-      <c r="L26" t="s">
-        <v>123</v>
-      </c>
-      <c r="M26" t="s">
-        <v>227</v>
-      </c>
-      <c r="N26" t="s">
-        <v>228</v>
-      </c>
-      <c r="O26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" t="s">
-        <v>224</v>
-      </c>
-      <c r="H27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" t="s">
-        <v>233</v>
-      </c>
-      <c r="K27" t="s">
-        <v>226</v>
-      </c>
-      <c r="L27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M27" t="s">
-        <v>234</v>
-      </c>
-      <c r="N27" t="s">
-        <v>235</v>
-      </c>
-      <c r="O27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>237</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>238</v>
-      </c>
-      <c r="E28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" t="s">
-        <v>241</v>
-      </c>
-      <c r="I28" t="s">
-        <v>242</v>
-      </c>
-      <c r="J28" t="s">
-        <v>243</v>
-      </c>
-      <c r="K28" t="s">
-        <v>244</v>
-      </c>
-      <c r="L28" t="s">
-        <v>123</v>
-      </c>
-      <c r="M28" t="s">
-        <v>245</v>
-      </c>
-      <c r="N28" t="s">
-        <v>246</v>
-      </c>
-      <c r="O28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
         <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" t="s">
-        <v>248</v>
-      </c>
-      <c r="F29" t="s">
-        <v>249</v>
-      </c>
-      <c r="G29" t="s">
-        <v>240</v>
-      </c>
-      <c r="H29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" t="s">
-        <v>250</v>
-      </c>
-      <c r="K29" t="s">
-        <v>251</v>
-      </c>
-      <c r="L29" t="s">
-        <v>123</v>
-      </c>
-      <c r="M29" t="s">
-        <v>252</v>
-      </c>
-      <c r="N29" t="s">
-        <v>253</v>
-      </c>
-      <c r="O29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G30" t="s">
-        <v>257</v>
-      </c>
-      <c r="H30" t="s">
-        <v>258</v>
-      </c>
-      <c r="I30" t="s">
-        <v>259</v>
-      </c>
-      <c r="J30" t="s">
-        <v>260</v>
-      </c>
-      <c r="K30" t="s">
-        <v>261</v>
-      </c>
-      <c r="L30" t="s">
-        <v>262</v>
-      </c>
-      <c r="M30" t="s">
-        <v>191</v>
-      </c>
-      <c r="N30" t="s">
-        <v>263</v>
-      </c>
-      <c r="O30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>264</v>
-      </c>
-      <c r="E31" t="s">
-        <v>265</v>
-      </c>
-      <c r="F31" t="s">
-        <v>266</v>
-      </c>
-      <c r="G31" t="s">
-        <v>257</v>
-      </c>
-      <c r="H31" t="s">
-        <v>267</v>
-      </c>
-      <c r="I31" t="s">
-        <v>268</v>
-      </c>
-      <c r="J31" t="s">
-        <v>269</v>
-      </c>
-      <c r="K31" t="s">
-        <v>270</v>
-      </c>
-      <c r="L31" t="s">
-        <v>271</v>
-      </c>
-      <c r="M31" t="s">
-        <v>272</v>
-      </c>
-      <c r="N31" t="s">
-        <v>273</v>
-      </c>
-      <c r="O31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32" t="s">
-        <v>276</v>
-      </c>
-      <c r="G32" t="s">
-        <v>277</v>
-      </c>
-      <c r="H32" t="s">
-        <v>278</v>
-      </c>
-      <c r="I32" t="s">
-        <v>279</v>
-      </c>
-      <c r="J32" t="s">
-        <v>280</v>
-      </c>
-      <c r="K32" t="s">
-        <v>281</v>
-      </c>
-      <c r="L32" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" t="s">
-        <v>282</v>
-      </c>
-      <c r="N32" t="s">
-        <v>283</v>
-      </c>
-      <c r="O32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>285</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>286</v>
-      </c>
-      <c r="F33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G33" t="s">
-        <v>288</v>
-      </c>
-      <c r="H33" t="s">
-        <v>84</v>
-      </c>
-      <c r="I33" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33" t="s">
-        <v>289</v>
-      </c>
-      <c r="K33" t="s">
-        <v>290</v>
-      </c>
-      <c r="L33" t="s">
-        <v>123</v>
-      </c>
-      <c r="M33" t="s">
-        <v>291</v>
-      </c>
-      <c r="N33" t="s">
-        <v>292</v>
-      </c>
-      <c r="O33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>293</v>
-      </c>
-      <c r="E34" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" t="s">
-        <v>294</v>
-      </c>
-      <c r="G34" t="s">
-        <v>288</v>
-      </c>
-      <c r="H34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I34" t="s">
-        <v>72</v>
-      </c>
-      <c r="J34" t="s">
-        <v>295</v>
-      </c>
-      <c r="K34" t="s">
-        <v>290</v>
-      </c>
-      <c r="L34" t="s">
-        <v>123</v>
-      </c>
-      <c r="M34" t="s">
-        <v>296</v>
-      </c>
-      <c r="N34" t="s">
-        <v>198</v>
-      </c>
-      <c r="O34" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>298</v>
-      </c>
-      <c r="F35" t="s">
-        <v>299</v>
-      </c>
-      <c r="G35" t="s">
-        <v>288</v>
-      </c>
-      <c r="H35" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" t="s">
-        <v>300</v>
-      </c>
-      <c r="K35" t="s">
-        <v>290</v>
-      </c>
-      <c r="L35" t="s">
-        <v>123</v>
-      </c>
-      <c r="M35" t="s">
-        <v>301</v>
-      </c>
-      <c r="N35" t="s">
-        <v>302</v>
-      </c>
-      <c r="O35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>304</v>
-      </c>
-      <c r="F36" t="s">
-        <v>305</v>
-      </c>
-      <c r="G36" t="s">
-        <v>288</v>
-      </c>
-      <c r="H36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J36" t="s">
-        <v>306</v>
-      </c>
-      <c r="K36" t="s">
-        <v>307</v>
-      </c>
-      <c r="L36" t="s">
-        <v>123</v>
-      </c>
-      <c r="M36" t="s">
-        <v>308</v>
-      </c>
-      <c r="N36" t="s">
-        <v>309</v>
-      </c>
-      <c r="O36" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>311</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" t="s">
-        <v>288</v>
-      </c>
-      <c r="H37" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" t="s">
-        <v>312</v>
-      </c>
-      <c r="K37" t="s">
-        <v>313</v>
-      </c>
-      <c r="L37" t="s">
-        <v>62</v>
-      </c>
-      <c r="M37" t="s">
-        <v>62</v>
-      </c>
-      <c r="N37" t="s">
-        <v>62</v>
-      </c>
-      <c r="O37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>314</v>
-      </c>
-      <c r="E38" t="s">
-        <v>315</v>
-      </c>
-      <c r="F38" t="s">
-        <v>316</v>
-      </c>
-      <c r="G38" t="s">
-        <v>288</v>
-      </c>
-      <c r="H38" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J38" t="s">
-        <v>317</v>
-      </c>
-      <c r="K38" t="s">
-        <v>318</v>
-      </c>
-      <c r="L38" t="s">
-        <v>123</v>
-      </c>
-      <c r="M38" t="s">
-        <v>319</v>
-      </c>
-      <c r="N38" t="s">
-        <v>320</v>
-      </c>
-      <c r="O38" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" t="s">
-        <v>321</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" t="s">
-        <v>288</v>
-      </c>
-      <c r="H39" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" t="s">
-        <v>85</v>
-      </c>
-      <c r="J39" t="s">
-        <v>322</v>
-      </c>
-      <c r="K39" t="s">
-        <v>313</v>
-      </c>
-      <c r="L39" t="s">
-        <v>62</v>
-      </c>
-      <c r="M39" t="s">
-        <v>62</v>
-      </c>
-      <c r="N39" t="s">
-        <v>62</v>
-      </c>
-      <c r="O39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" t="s">
-        <v>323</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>288</v>
-      </c>
-      <c r="H40" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" t="s">
-        <v>324</v>
-      </c>
-      <c r="K40" t="s">
-        <v>313</v>
-      </c>
-      <c r="L40" t="s">
-        <v>62</v>
-      </c>
-      <c r="M40" t="s">
-        <v>62</v>
-      </c>
-      <c r="N40" t="s">
-        <v>62</v>
-      </c>
-      <c r="O40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>325</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>326</v>
-      </c>
-      <c r="E41" t="s">
-        <v>298</v>
-      </c>
-      <c r="F41" t="s">
-        <v>327</v>
-      </c>
-      <c r="G41" t="s">
-        <v>328</v>
-      </c>
-      <c r="H41" t="s">
-        <v>329</v>
-      </c>
-      <c r="I41" t="s">
-        <v>330</v>
-      </c>
-      <c r="J41" t="s">
-        <v>331</v>
-      </c>
-      <c r="K41" t="s">
-        <v>332</v>
-      </c>
-      <c r="L41" t="s">
-        <v>123</v>
-      </c>
-      <c r="M41" t="s">
-        <v>333</v>
-      </c>
-      <c r="N41" t="s">
-        <v>334</v>
-      </c>
-      <c r="O41" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" t="s">
-        <v>336</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>337</v>
-      </c>
-      <c r="E42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" t="s">
-        <v>338</v>
-      </c>
-      <c r="G42" t="s">
-        <v>328</v>
-      </c>
-      <c r="H42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" t="s">
-        <v>339</v>
-      </c>
-      <c r="K42" t="s">
-        <v>340</v>
-      </c>
-      <c r="L42" t="s">
-        <v>123</v>
-      </c>
-      <c r="M42" t="s">
-        <v>296</v>
-      </c>
-      <c r="N42" t="s">
-        <v>341</v>
-      </c>
-      <c r="O42" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" t="s">
-        <v>343</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" t="s">
-        <v>328</v>
-      </c>
-      <c r="H43" t="s">
-        <v>344</v>
-      </c>
-      <c r="I43" t="s">
-        <v>345</v>
-      </c>
-      <c r="J43" t="s">
-        <v>346</v>
-      </c>
-      <c r="K43" t="s">
-        <v>347</v>
-      </c>
-      <c r="L43" t="s">
-        <v>62</v>
-      </c>
-      <c r="M43" t="s">
-        <v>62</v>
-      </c>
-      <c r="N43" t="s">
-        <v>62</v>
-      </c>
-      <c r="O43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" t="s">
-        <v>348</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" t="s">
-        <v>328</v>
-      </c>
-      <c r="H44" t="s">
-        <v>349</v>
-      </c>
-      <c r="I44" t="s">
-        <v>350</v>
-      </c>
-      <c r="J44" t="s">
-        <v>351</v>
-      </c>
-      <c r="K44" t="s">
-        <v>347</v>
-      </c>
-      <c r="L44" t="s">
-        <v>62</v>
-      </c>
-      <c r="M44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N44" t="s">
-        <v>62</v>
-      </c>
-      <c r="O44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" t="s">
-        <v>336</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>352</v>
-      </c>
-      <c r="E45" t="s">
-        <v>353</v>
-      </c>
-      <c r="F45" t="s">
-        <v>354</v>
-      </c>
-      <c r="G45" t="s">
-        <v>328</v>
-      </c>
-      <c r="H45" t="s">
-        <v>355</v>
-      </c>
-      <c r="I45" t="s">
-        <v>356</v>
-      </c>
-      <c r="J45" t="s">
-        <v>357</v>
-      </c>
-      <c r="K45" t="s">
-        <v>347</v>
-      </c>
-      <c r="L45" t="s">
-        <v>358</v>
-      </c>
-      <c r="M45" t="s">
-        <v>191</v>
-      </c>
-      <c r="N45" t="s">
-        <v>359</v>
-      </c>
-      <c r="O45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" t="s">
-        <v>360</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" t="s">
-        <v>361</v>
-      </c>
-      <c r="F46" t="s">
-        <v>362</v>
-      </c>
-      <c r="G46" t="s">
-        <v>363</v>
-      </c>
-      <c r="H46" t="s">
-        <v>99</v>
-      </c>
-      <c r="I46" t="s">
-        <v>100</v>
-      </c>
-      <c r="J46" t="s">
-        <v>364</v>
-      </c>
-      <c r="K46" t="s">
-        <v>365</v>
-      </c>
-      <c r="L46" t="s">
-        <v>123</v>
-      </c>
-      <c r="M46" t="s">
-        <v>366</v>
-      </c>
-      <c r="N46" t="s">
-        <v>367</v>
-      </c>
-      <c r="O46" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>369</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>370</v>
-      </c>
-      <c r="E47" t="s">
-        <v>371</v>
-      </c>
-      <c r="F47" t="s">
-        <v>372</v>
-      </c>
-      <c r="G47" t="s">
-        <v>373</v>
-      </c>
-      <c r="H47" t="s">
-        <v>374</v>
-      </c>
-      <c r="I47" t="s">
-        <v>375</v>
-      </c>
-      <c r="J47" t="s">
-        <v>376</v>
-      </c>
-      <c r="K47" t="s">
-        <v>377</v>
-      </c>
-      <c r="L47" t="s">
-        <v>36</v>
-      </c>
-      <c r="M47" t="s">
-        <v>378</v>
-      </c>
-      <c r="N47" t="s">
-        <v>379</v>
-      </c>
-      <c r="O47" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" t="s">
-        <v>381</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>382</v>
-      </c>
-      <c r="E48" t="s">
-        <v>298</v>
-      </c>
-      <c r="F48" t="s">
-        <v>383</v>
-      </c>
-      <c r="G48" t="s">
-        <v>384</v>
-      </c>
-      <c r="H48" t="s">
-        <v>108</v>
-      </c>
-      <c r="I48" t="s">
-        <v>109</v>
-      </c>
-      <c r="J48" t="s">
-        <v>385</v>
-      </c>
-      <c r="K48" t="s">
-        <v>386</v>
-      </c>
-      <c r="L48" t="s">
-        <v>123</v>
-      </c>
-      <c r="M48" t="s">
-        <v>387</v>
-      </c>
-      <c r="N48" t="s">
-        <v>388</v>
-      </c>
-      <c r="O48" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" t="s">
-        <v>237</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" t="s">
-        <v>389</v>
-      </c>
-      <c r="G49" t="s">
-        <v>390</v>
-      </c>
-      <c r="H49" t="s">
-        <v>113</v>
-      </c>
-      <c r="I49" t="s">
-        <v>114</v>
-      </c>
-      <c r="J49" t="s">
-        <v>391</v>
-      </c>
-      <c r="K49" t="s">
-        <v>392</v>
-      </c>
-      <c r="L49" t="s">
-        <v>123</v>
-      </c>
-      <c r="M49" t="s">
-        <v>191</v>
-      </c>
-      <c r="N49" t="s">
-        <v>393</v>
-      </c>
-      <c r="O49" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" t="s">
-        <v>395</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" t="s">
-        <v>396</v>
-      </c>
-      <c r="G50" t="s">
-        <v>390</v>
-      </c>
-      <c r="H50" t="s">
-        <v>219</v>
-      </c>
-      <c r="I50" t="s">
-        <v>220</v>
-      </c>
-      <c r="J50" t="s">
-        <v>397</v>
-      </c>
-      <c r="K50" t="s">
-        <v>398</v>
-      </c>
-      <c r="L50" t="s">
-        <v>123</v>
-      </c>
-      <c r="M50" t="s">
-        <v>399</v>
-      </c>
-      <c r="N50" t="s">
-        <v>284</v>
-      </c>
-      <c r="O50" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" t="s">
-        <v>390</v>
-      </c>
-      <c r="H51" t="s">
-        <v>152</v>
-      </c>
-      <c r="I51" t="s">
-        <v>153</v>
-      </c>
-      <c r="J51" t="s">
-        <v>401</v>
-      </c>
-      <c r="K51" t="s">
-        <v>398</v>
-      </c>
-      <c r="L51" t="s">
-        <v>62</v>
-      </c>
-      <c r="M51" t="s">
-        <v>62</v>
-      </c>
-      <c r="N51" t="s">
-        <v>62</v>
-      </c>
-      <c r="O51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s">
-        <v>390</v>
-      </c>
-      <c r="H52" t="s">
-        <v>402</v>
-      </c>
-      <c r="I52" t="s">
-        <v>403</v>
-      </c>
-      <c r="J52" t="s">
-        <v>404</v>
-      </c>
-      <c r="K52" t="s">
-        <v>405</v>
-      </c>
-      <c r="L52" t="s">
-        <v>62</v>
-      </c>
-      <c r="M52" t="s">
-        <v>62</v>
-      </c>
-      <c r="N52" t="s">
-        <v>62</v>
-      </c>
-      <c r="O52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" t="s">
-        <v>406</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" t="s">
-        <v>390</v>
-      </c>
-      <c r="H53" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" t="s">
-        <v>131</v>
-      </c>
-      <c r="J53" t="s">
-        <v>407</v>
-      </c>
-      <c r="K53" t="s">
-        <v>408</v>
-      </c>
-      <c r="L53" t="s">
-        <v>62</v>
-      </c>
-      <c r="M53" t="s">
-        <v>62</v>
-      </c>
-      <c r="N53" t="s">
-        <v>62</v>
-      </c>
-      <c r="O53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" t="s">
-        <v>409</v>
-      </c>
-      <c r="G54" t="s">
-        <v>390</v>
-      </c>
-      <c r="H54" t="s">
-        <v>127</v>
-      </c>
-      <c r="I54" t="s">
-        <v>128</v>
-      </c>
-      <c r="J54" t="s">
-        <v>410</v>
-      </c>
-      <c r="K54" t="s">
-        <v>411</v>
-      </c>
-      <c r="L54" t="s">
-        <v>123</v>
-      </c>
-      <c r="M54" t="s">
-        <v>412</v>
-      </c>
-      <c r="N54" t="s">
-        <v>413</v>
-      </c>
-      <c r="O54" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>415</v>
-      </c>
-      <c r="E55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" t="s">
-        <v>416</v>
-      </c>
-      <c r="G55" t="s">
-        <v>417</v>
-      </c>
-      <c r="H55" t="s">
-        <v>418</v>
-      </c>
-      <c r="I55" t="s">
-        <v>419</v>
-      </c>
-      <c r="J55" t="s">
-        <v>420</v>
-      </c>
-      <c r="K55" t="s">
-        <v>421</v>
-      </c>
-      <c r="L55" t="s">
-        <v>123</v>
-      </c>
-      <c r="M55" t="s">
-        <v>422</v>
-      </c>
-      <c r="N55" t="s">
-        <v>423</v>
-      </c>
-      <c r="O55" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>424</v>
-      </c>
-      <c r="B56" t="s">
-        <v>237</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>425</v>
-      </c>
-      <c r="E56" t="s">
-        <v>208</v>
-      </c>
-      <c r="F56" t="s">
-        <v>426</v>
-      </c>
-      <c r="G56" t="s">
-        <v>417</v>
-      </c>
-      <c r="H56" t="s">
-        <v>427</v>
-      </c>
-      <c r="I56" t="s">
-        <v>428</v>
-      </c>
-      <c r="J56" t="s">
-        <v>429</v>
-      </c>
-      <c r="K56" t="s">
-        <v>430</v>
-      </c>
-      <c r="L56" t="s">
-        <v>36</v>
-      </c>
-      <c r="M56" t="s">
-        <v>431</v>
-      </c>
-      <c r="N56" t="s">
-        <v>432</v>
-      </c>
-      <c r="O56" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" t="s">
-        <v>434</v>
-      </c>
-      <c r="F57" t="s">
-        <v>435</v>
-      </c>
-      <c r="G57" t="s">
-        <v>417</v>
-      </c>
-      <c r="H57" t="s">
-        <v>138</v>
-      </c>
-      <c r="I57" t="s">
-        <v>139</v>
-      </c>
-      <c r="J57" t="s">
-        <v>436</v>
-      </c>
-      <c r="K57" t="s">
-        <v>437</v>
-      </c>
-      <c r="L57" t="s">
-        <v>123</v>
-      </c>
-      <c r="M57" t="s">
-        <v>438</v>
-      </c>
-      <c r="N57" t="s">
-        <v>393</v>
-      </c>
-      <c r="O57" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" t="s">
-        <v>440</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>441</v>
-      </c>
-      <c r="E58" t="s">
-        <v>442</v>
-      </c>
-      <c r="F58" t="s">
-        <v>443</v>
-      </c>
-      <c r="G58" t="s">
-        <v>417</v>
-      </c>
-      <c r="H58" t="s">
-        <v>444</v>
-      </c>
-      <c r="I58" t="s">
-        <v>445</v>
-      </c>
-      <c r="J58" t="s">
-        <v>446</v>
-      </c>
-      <c r="K58" t="s">
-        <v>447</v>
-      </c>
-      <c r="L58" t="s">
-        <v>36</v>
-      </c>
-      <c r="M58" t="s">
-        <v>448</v>
-      </c>
-      <c r="N58" t="s">
-        <v>449</v>
-      </c>
-      <c r="O58" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>451</v>
-      </c>
-      <c r="B59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" t="s">
-        <v>62</v>
-      </c>
-      <c r="G59" t="s">
-        <v>417</v>
-      </c>
-      <c r="H59" t="s">
-        <v>452</v>
-      </c>
-      <c r="I59" t="s">
-        <v>453</v>
-      </c>
-      <c r="J59" t="s">
-        <v>454</v>
-      </c>
-      <c r="K59" t="s">
-        <v>455</v>
-      </c>
-      <c r="L59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M59" t="s">
-        <v>62</v>
-      </c>
-      <c r="N59" t="s">
-        <v>62</v>
-      </c>
-      <c r="O59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>456</v>
-      </c>
-      <c r="B60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" t="s">
-        <v>434</v>
-      </c>
-      <c r="F60" t="s">
-        <v>457</v>
-      </c>
-      <c r="G60" t="s">
-        <v>417</v>
-      </c>
-      <c r="H60" t="s">
-        <v>458</v>
-      </c>
-      <c r="I60" t="s">
-        <v>459</v>
-      </c>
-      <c r="J60" t="s">
-        <v>460</v>
-      </c>
-      <c r="K60" t="s">
-        <v>461</v>
-      </c>
-      <c r="L60" t="s">
-        <v>123</v>
-      </c>
-      <c r="M60" t="s">
-        <v>462</v>
-      </c>
-      <c r="N60" t="s">
-        <v>463</v>
-      </c>
-      <c r="O60" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" t="s">
-        <v>465</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>466</v>
-      </c>
-      <c r="E61" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61" t="s">
-        <v>467</v>
-      </c>
-      <c r="G61" t="s">
-        <v>417</v>
-      </c>
-      <c r="H61" t="s">
-        <v>468</v>
-      </c>
-      <c r="I61" t="s">
-        <v>469</v>
-      </c>
-      <c r="J61" t="s">
-        <v>470</v>
-      </c>
-      <c r="K61" t="s">
-        <v>471</v>
-      </c>
-      <c r="L61" t="s">
-        <v>36</v>
-      </c>
-      <c r="M61" t="s">
-        <v>472</v>
-      </c>
-      <c r="N61" t="s">
-        <v>473</v>
-      </c>
-      <c r="O61" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" t="s">
-        <v>475</v>
-      </c>
-      <c r="G62" t="s">
-        <v>417</v>
-      </c>
-      <c r="H62" t="s">
-        <v>476</v>
-      </c>
-      <c r="I62" t="s">
-        <v>477</v>
-      </c>
-      <c r="J62" t="s">
-        <v>478</v>
-      </c>
-      <c r="K62" t="s">
-        <v>479</v>
-      </c>
-      <c r="L62" t="s">
-        <v>123</v>
-      </c>
-      <c r="M62" t="s">
-        <v>480</v>
-      </c>
-      <c r="N62" t="s">
-        <v>228</v>
-      </c>
-      <c r="O62" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" t="s">
-        <v>325</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" t="s">
-        <v>223</v>
-      </c>
-      <c r="G63" t="s">
-        <v>417</v>
-      </c>
-      <c r="H63" t="s">
-        <v>481</v>
-      </c>
-      <c r="I63" t="s">
-        <v>482</v>
-      </c>
-      <c r="J63" t="s">
-        <v>483</v>
-      </c>
-      <c r="K63" t="s">
-        <v>484</v>
-      </c>
-      <c r="L63" t="s">
-        <v>190</v>
-      </c>
-      <c r="M63" t="s">
-        <v>191</v>
-      </c>
-      <c r="N63" t="s">
-        <v>206</v>
-      </c>
-      <c r="O63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>485</v>
-      </c>
-      <c r="B64" t="s">
-        <v>486</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" t="s">
-        <v>487</v>
-      </c>
-      <c r="E64" t="s">
-        <v>353</v>
-      </c>
-      <c r="F64" t="s">
-        <v>488</v>
-      </c>
-      <c r="G64" t="s">
-        <v>489</v>
-      </c>
-      <c r="H64" t="s">
-        <v>490</v>
-      </c>
-      <c r="I64" t="s">
-        <v>491</v>
-      </c>
-      <c r="J64" t="s">
-        <v>492</v>
-      </c>
-      <c r="K64" t="s">
-        <v>493</v>
-      </c>
-      <c r="L64" t="s">
-        <v>36</v>
-      </c>
-      <c r="M64" t="s">
-        <v>494</v>
-      </c>
-      <c r="N64" t="s">
-        <v>341</v>
-      </c>
-      <c r="O64" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" t="s">
-        <v>495</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" t="s">
-        <v>62</v>
-      </c>
-      <c r="G65" t="s">
-        <v>489</v>
-      </c>
-      <c r="H65" t="s">
-        <v>496</v>
-      </c>
-      <c r="I65" t="s">
-        <v>497</v>
-      </c>
-      <c r="J65" t="s">
-        <v>498</v>
-      </c>
-      <c r="K65" t="s">
-        <v>499</v>
-      </c>
-      <c r="L65" t="s">
-        <v>62</v>
-      </c>
-      <c r="M65" t="s">
-        <v>62</v>
-      </c>
-      <c r="N65" t="s">
-        <v>62</v>
-      </c>
-      <c r="O65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>500</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" t="s">
-        <v>62</v>
-      </c>
-      <c r="F66" t="s">
-        <v>62</v>
-      </c>
-      <c r="G66" t="s">
-        <v>489</v>
-      </c>
-      <c r="H66" t="s">
-        <v>501</v>
-      </c>
-      <c r="I66" t="s">
-        <v>502</v>
-      </c>
-      <c r="J66" t="s">
-        <v>503</v>
-      </c>
-      <c r="K66" t="s">
-        <v>499</v>
-      </c>
-      <c r="L66" t="s">
-        <v>62</v>
-      </c>
-      <c r="M66" t="s">
-        <v>62</v>
-      </c>
-      <c r="N66" t="s">
-        <v>62</v>
-      </c>
-      <c r="O66" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/scrape_test.xlsx
+++ b/scrape_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\SeleniumScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F31E0-23FD-4CB4-885B-0A099DCAD53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A781A-FE5B-4418-B642-A4BA2161361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{56278F8B-BEE9-42CF-ABF7-9E413A0BDFA7}"/>
   </bookViews>
@@ -1308,12 +1308,13 @@
   <cols>
     <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.21875" customWidth="1"/>
     <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/scrape_test.xlsx
+++ b/scrape_test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="340">
   <si>
     <t>ASK</t>
   </si>
@@ -951,6 +951,111 @@
   </si>
   <si>
     <t>10.76</t>
+  </si>
+  <si>
+    <t>1,189.92</t>
+  </si>
+  <si>
+    <t>5949.60</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>145.78</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>1,030.00</t>
+  </si>
+  <si>
+    <t>20600.00</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>13.30</t>
+  </si>
+  <si>
+    <t>1,025.00</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>103525.00</t>
+  </si>
+  <si>
+    <t>INE342T07460</t>
+  </si>
+  <si>
+    <t>Sec Re NCD 10.65% Sr.IV</t>
+  </si>
+  <si>
+    <t>285.63</t>
+  </si>
+  <si>
+    <t>9.64</t>
+  </si>
+  <si>
+    <t>1,119.90</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>71673.60</t>
+  </si>
+  <si>
+    <t>4.71</t>
+  </si>
+  <si>
+    <t>410.10</t>
+  </si>
+  <si>
+    <t>7.77</t>
+  </si>
+  <si>
+    <t>1,100.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>230.60</t>
+  </si>
+  <si>
+    <t>9.36</t>
+  </si>
+  <si>
+    <t>1,012.70</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>67850.90</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>INE614X07365</t>
+  </si>
+  <si>
+    <t>97.30</t>
+  </si>
+  <si>
+    <t>12.32</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F41F21-BEF6-4325-8408-EAC3D486012A}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1399,19 +1504,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -1426,10 +1531,98 @@
         <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N2" t="s">
-        <v>304</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N4" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
